--- a/vio_lesson/capter4/work/Lesson4-1.xlsx
+++ b/vio_lesson/capter4/work/Lesson4-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27825" windowHeight="12645"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>x2</t>
   </si>
@@ -76,32 +76,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -118,14 +94,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,9 +116,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,29 +155,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +184,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -199,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,187 +220,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,6 +678,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -687,11 +713,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,32 +738,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -756,152 +762,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,6 +950,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,6 +963,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,7 +1102,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5232400" y="1443990"/>
+              <a:off x="4559300" y="1443990"/>
               <a:ext cx="1452245" cy="403860"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1146,7 +1158,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5232400" y="1443990"/>
+              <a:off x="4559300" y="1443990"/>
               <a:ext cx="1452245" cy="403860"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1208,8 +1220,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="8347710" y="1409065"/>
-          <a:ext cx="211455" cy="2755900"/>
+          <a:off x="7240270" y="1602105"/>
+          <a:ext cx="211455" cy="2369820"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst/>
@@ -1242,7 +1254,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
+      <xdr:colOff>311785</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
@@ -1256,7 +1268,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10401935" y="1459865"/>
+              <a:off x="9028430" y="1459865"/>
               <a:ext cx="381000" cy="372745"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1312,7 +1324,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10401935" y="1459865"/>
+              <a:off x="9028430" y="1459865"/>
               <a:ext cx="381000" cy="372745"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1642,18 +1654,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:R26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="4.51666666666667" customWidth="1"/>
-    <col min="2" max="39" width="4.725" customWidth="1"/>
+    <col min="1" max="1" width="4.51923076923077" customWidth="1"/>
+    <col min="2" max="39" width="4.72115384615385" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="28.3" customHeight="1" spans="1:28">
@@ -1712,22 +1724,22 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="14"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="20"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="22"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="32"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="34"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -1738,7 +1750,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
-      <c r="AB2" s="14"/>
+      <c r="AB2" s="15"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -1765,14 +1777,14 @@
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="15"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="19"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1791,7 +1803,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="8"/>
-      <c r="AB3" s="15"/>
+      <c r="AB3" s="16"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -1802,7 +1814,7 @@
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
-      <c r="AK3" s="14"/>
+      <c r="AK3" s="15"/>
     </row>
     <row r="4" customFormat="1" ht="28.3" customHeight="1" spans="1:37">
       <c r="A4" s="2"/>
@@ -1810,14 +1822,14 @@
       <c r="C4" s="7"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1836,7 +1848,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="8"/>
-      <c r="AB4" s="16"/>
+      <c r="AB4" s="17"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -1847,7 +1859,7 @@
       <c r="AH4" s="6"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="8"/>
-      <c r="AK4" s="15"/>
+      <c r="AK4" s="16"/>
     </row>
     <row r="5" customFormat="1" ht="28.3" customHeight="1" spans="1:37">
       <c r="A5" s="2"/>
@@ -1855,14 +1867,14 @@
       <c r="C5" s="8"/>
       <c r="D5" s="7"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1881,7 +1893,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="6"/>
-      <c r="AB5" s="16"/>
+      <c r="AB5" s="17"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -1892,7 +1904,7 @@
       <c r="AH5" s="7"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="8"/>
-      <c r="AK5" s="16"/>
+      <c r="AK5" s="17"/>
     </row>
     <row r="6" customFormat="1" ht="28.3" customHeight="1" spans="1:37">
       <c r="A6" s="2"/>
@@ -1900,14 +1912,14 @@
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="21"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1926,7 +1938,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
-      <c r="AB6" s="17"/>
+      <c r="AB6" s="18"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -1937,7 +1949,7 @@
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="6"/>
-      <c r="AK6" s="16"/>
+      <c r="AK6" s="17"/>
     </row>
     <row r="7" customFormat="1" ht="28.3" customHeight="1" spans="1:37">
       <c r="A7" s="1"/>
@@ -1990,7 +2002,7 @@
       <c r="AH7" s="10"/>
       <c r="AI7" s="11"/>
       <c r="AJ7" s="11"/>
-      <c r="AK7" s="17"/>
+      <c r="AK7" s="18"/>
     </row>
     <row r="8" ht="28.3" customHeight="1" spans="1:37">
       <c r="A8" s="2" t="s">
@@ -2001,7 +2013,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="14"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2042,17 +2054,17 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="26"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="33"/>
+      <c r="Q9" s="35"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -2083,17 +2095,17 @@
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="34"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="36"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2124,17 +2136,17 @@
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="28"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="34"/>
+      <c r="Q11" s="36"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2165,17 +2177,17 @@
       <c r="D12" s="8"/>
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="28"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="34"/>
+      <c r="Q12" s="36"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2201,22 +2213,22 @@
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="17"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="35"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="37"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2251,11 +2263,11 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="35"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="37"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -2303,7 +2315,7 @@
       <c r="O21" s="12"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="14"/>
+      <c r="R21" s="15"/>
     </row>
     <row r="22" ht="28.3" customHeight="1" spans="12:18">
       <c r="L22" s="2" t="s">
@@ -2314,7 +2326,7 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="15"/>
+      <c r="R22" s="16"/>
     </row>
     <row r="23" ht="28.3" customHeight="1" spans="12:18">
       <c r="L23" s="2" t="s">
@@ -2325,7 +2337,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="15"/>
+      <c r="R23" s="16"/>
     </row>
     <row r="24" ht="28.3" customHeight="1" spans="12:18">
       <c r="L24" s="2" t="s">
@@ -2336,7 +2348,7 @@
       <c r="O24" s="7"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="16"/>
+      <c r="R24" s="17"/>
     </row>
     <row r="25" ht="28.3" customHeight="1" spans="12:18">
       <c r="L25" s="2" t="s">
@@ -2347,7 +2359,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="16"/>
+      <c r="R25" s="17"/>
     </row>
     <row r="26" ht="28.3" customHeight="1" spans="12:18">
       <c r="L26" s="2" t="s">
@@ -2358,10 +2370,10 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
-      <c r="R26" s="17"/>
+      <c r="R26" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -2369,7 +2381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2377,16 +2389,16 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2394,9 +2406,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
